--- a/src/main/java/com/smart/qa/testdata/UserCreationData.xlsx
+++ b/src/main/java/com/smart/qa/testdata/UserCreationData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB0317A0-0D88-41BA-BABA-285BB230D962}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2B86860-AD94-400B-94D6-550C15E1D285}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBT" sheetId="2" r:id="rId1"/>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982D30A4-17D1-4A2B-8EB1-C4AC788FC64D}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
